--- a/data6.xlsx
+++ b/data6.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,18 @@
           <t>SL</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>G4F</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -461,6 +473,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Вход</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Выход</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>YFG</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KUF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АВВ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EEF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>POK</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -489,81 +575,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YFG</t>
+          <t>HFG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HFG</t>
+          <t>KUF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KUF</t>
+          <t>FKN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FKN</t>
+          <t>OPS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>АВВ</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Вход</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Выход</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HFG</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KUF</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FKN</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
@@ -578,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,11 +652,23 @@
           <t>YFG</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>АВВ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>KUF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SSH</t>
         </is>
       </c>
     </row>
